--- a/lecture-guest/mydata.xlsx
+++ b/lecture-guest/mydata.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>2023-10-08</t>
+          <t>2023-10-09</t>
         </is>
       </c>
     </row>
@@ -468,11 +468,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
+    <oddHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</oddFooter>
-    <evenHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
+    <evenHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
     <evenFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</evenFooter>
-    <firstHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
+    <firstHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
     <firstFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</firstFooter>
   </headerFooter>
 </worksheet>
@@ -2223,11 +2223,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
+    <oddHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</oddFooter>
-    <evenHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
+    <evenHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
     <evenFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</evenFooter>
-    <firstHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
+    <firstHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
     <firstFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</firstFooter>
   </headerFooter>
   <tableParts count="1">
@@ -3899,11 +3899,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
+    <oddHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</oddFooter>
-    <evenHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
+    <evenHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
     <evenFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</evenFooter>
-    <firstHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
+    <firstHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
     <firstFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</firstFooter>
   </headerFooter>
   <tableParts count="1">
@@ -4210,11 +4210,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
+    <oddHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</oddFooter>
-    <evenHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
+    <evenHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
     <evenFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</evenFooter>
-    <firstHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
+    <firstHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
     <firstFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</firstFooter>
   </headerFooter>
   <tableParts count="1">
@@ -4388,11 +4388,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
+    <oddHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</oddFooter>
-    <evenHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
+    <evenHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</evenHeader>
     <evenFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</evenFooter>
-    <firstHeader>&amp;LCreated on 2023-10-08&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
+    <firstHeader>&amp;LCreated on 2023-10-09&amp;CSteinauer et al. 2015&amp;R&amp;P / &amp;N</firstHeader>
     <firstFooter>&amp;L&amp;F&amp;C&amp;A&amp;RPrinted on &amp;D</firstFooter>
   </headerFooter>
 </worksheet>
